--- a/BN/wwwroot/excel/Confirmation_Sheet/Confirmation_Sheet.xlsx
+++ b/BN/wwwroot/excel/Confirmation_Sheet/Confirmation_Sheet.xlsx
@@ -2,12 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRGIS\BN\wwwroot\excel\Confirmation_Sheet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CONFIRMATION_SHEET" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,11 +23,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>EMP NO.</t>
+  </si>
+  <si>
+    <t>ENGLISH NAME</t>
+  </si>
+  <si>
+    <t>THAI NAME</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>COURSE NO.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TRAINER</t>
+  </si>
+  <si>
+    <t>COURSE NAME</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>PLACE</t>
+  </si>
+  <si>
+    <t>ORGANIZER</t>
+  </si>
+  <si>
+    <t>CONFIRMATION SHEET</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,20 +108,201 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,14 +583,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D&amp;T&amp;R&amp;P of &amp;N</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>